--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4594,7 +4595,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -4610,6 +4610,668 @@
       </c>
       <c r="H37" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5277,4 +5278,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5788,4 +5789,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5797,7 +5798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5808,17 +5809,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5828,14 +5849,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.41</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5844,14 +5887,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.02</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5860,14 +5925,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.63</v>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5876,13 +5963,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>22.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6082,7 +6083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,17 +6094,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6113,14 +6134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.42</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6129,14 +6172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.41</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6145,14 +6210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.02</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6161,14 +6248,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.63</v>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6177,13 +6286,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>71</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>22.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6481,7 +6482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6492,17 +6493,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6512,14 +6533,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.46</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6528,14 +6571,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.42</v>
       </c>
     </row>
     <row r="4">
@@ -6544,14 +6609,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.41</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6560,14 +6647,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.02</v>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6576,14 +6685,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.63</v>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6592,13 +6723,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>71</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>22.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4.31</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6.46</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.42</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.41</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>5.02</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>6.63</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>71</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>22.33</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.85</t>
+          <t>52.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.9738</t>
+          <t>3.4000</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000877</t>
+          <t>540006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
+          <t>汇丰晋信大盘股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.73</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.2193</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>76.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0878</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>33.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008602</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>方正富邦新兴成长混合A</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,150 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013712</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>方正富邦鑫益一年定期开放混合A</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008603</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013713</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦鑫益一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1064,26 +967,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.05</t>
+          <t>56.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0970</t>
+          <t>3.9738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1092,36 +995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>86.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3609</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1130,36 +1033,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163407</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.45</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1178,26 +1081,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.31</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1206,36 +1109,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007230</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1244,36 +1147,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>013712</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>方正富邦鑫益一年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1282,36 +1185,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>516720</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.67</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1320,36 +1223,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012977</t>
+          <t>008603</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+          <t>方正富邦新兴成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1358,36 +1261,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012978</t>
+          <t>013713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+          <t>方正富邦鑫益一年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1396,6 +1299,404 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2189,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2851,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4268,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
+++ b/数据整理/stocks/A股/上证主板/601336-新华保险.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.31</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.46</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5.42</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.41</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>5.02</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>6.63</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2784 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>71</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>22.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006982</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>168001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保中证养老产业指数增强</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006983</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3388,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -893,404 +4328,6 @@
       </c>
       <c r="H7" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.9738</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008602</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>71.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013712</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>方正富邦鑫益一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008603</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013713</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦鑫益一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1365,26 +4402,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.05</t>
+          <t>56.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0970</t>
+          <t>3.9738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1393,36 +4430,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>86.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3609</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1431,36 +4468,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163407</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.45</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8622</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1479,26 +4516,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.31</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1507,36 +4544,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007230</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1545,36 +4582,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>013712</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>方正富邦鑫益一年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1583,36 +4620,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>516720</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.67</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1621,36 +4658,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012977</t>
+          <t>008603</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+          <t>方正富邦新兴成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1659,36 +4696,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012978</t>
+          <t>013713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+          <t>方正富邦鑫益一年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +4734,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2490,7 +5925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3152,7 +6587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4567,2758 +8002,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000991</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4165</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6201</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘股票H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6201</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005711</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>永赢惠添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163407</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4335</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2720</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2720</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1068</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实研究精选混合H</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8337</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>070013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.8337</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519193</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家消费成长股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7549</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7418</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009688</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家鑫动力月月购一年滚动持有混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.53</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5870</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007944</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>永赢乾元三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5679</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519021</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰金鼎价值混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5438</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4605</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005400</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4060</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3557</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007657</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3170</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161910</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家新机遇价值驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3093</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004702</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方金融主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2434</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519013</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>海富通风格优势混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1911</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001758</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实研究增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1653</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1630</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1547</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1280</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000082</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实研究阿尔法股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>76.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1226</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001626</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰央企改革股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002212</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实新起航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>25.27</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002222</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0995</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001172</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏华弘泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005401</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>万家潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0735</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006085</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>万家新机遇价值驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004218</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>前海开源裕和混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>000803</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银研究精选股票</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>33.72</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>007502</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>前海开源裕和混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007230</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007658</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>76.15</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>501002</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>长信价值优选混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>30.39</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>001392</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>004244</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>东方周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>006982</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>168001</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>国寿安保中证养老产业指数增强</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>006983</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>001393</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>国富金融地产灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>001381</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>鹏华弘泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>000887</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>上投摩根稳进回报混合</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>26.99</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>